--- a/example/input/badges.xlsx
+++ b/example/input/badges.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43468</v>
+        <v>43470</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,7 +521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43470</v>
+        <v>43477</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,7 +541,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43470</v>
+        <v>43478</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43472</v>
+        <v>43481</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -581,7 +581,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43476</v>
+        <v>43486</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,7 +601,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43485</v>
+        <v>43487</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,7 +621,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43486</v>
+        <v>43488</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,7 +641,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43493</v>
+        <v>43488</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Angel Trottier</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -661,7 +661,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43497</v>
+        <v>43490</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Ruth Worden</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -681,7 +681,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43498</v>
+        <v>43491</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>James Mandel</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,7 +701,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43504</v>
+        <v>43492</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -721,7 +721,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43505</v>
+        <v>43492</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Charles Gahagan</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -741,7 +741,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43507</v>
+        <v>43494</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,7 +761,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43508</v>
+        <v>43497</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -781,7 +781,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43508</v>
+        <v>43499</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -801,7 +801,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -821,7 +821,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -841,7 +841,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43518</v>
+        <v>43524</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -861,7 +861,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43525</v>
+        <v>43530</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -881,7 +881,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43526</v>
+        <v>43532</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -901,7 +901,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43526</v>
+        <v>43533</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>William Hetrick</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -921,7 +921,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43528</v>
+        <v>43538</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -941,7 +941,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43531</v>
+        <v>43543</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -961,7 +961,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43531</v>
+        <v>43545</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -981,7 +981,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43535</v>
+        <v>43547</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43541</v>
+        <v>43548</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Christopher Harrell</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1021,7 +1021,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43549</v>
+        <v>43551</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1041,7 +1041,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1081,7 +1081,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43554</v>
+        <v>43553</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1101,7 +1101,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43554</v>
+        <v>43562</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1121,7 +1121,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43554</v>
+        <v>43563</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1141,7 +1141,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43560</v>
+        <v>43564</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,7 +1161,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43563</v>
+        <v>43568</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1181,7 +1181,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43565</v>
+        <v>43569</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>John Edmund</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1201,7 +1201,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43566</v>
+        <v>43573</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1221,7 +1221,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43570</v>
+        <v>43574</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1241,7 +1241,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43570</v>
+        <v>43577</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Robin Clarke</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1261,7 +1261,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43571</v>
+        <v>43582</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Olive Guerrero</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1281,7 +1281,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43571</v>
+        <v>43582</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1301,7 +1301,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43572</v>
+        <v>43583</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1321,7 +1321,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43575</v>
+        <v>43585</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jody Crockwell</t>
+          <t>Pamela Auvil</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,7 +1341,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43578</v>
+        <v>43589</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43583</v>
+        <v>43590</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1381,7 +1381,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>James Mandel</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1401,7 +1401,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43586</v>
+        <v>43592</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1421,7 +1421,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43586</v>
+        <v>43593</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1441,7 +1441,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43591</v>
+        <v>43593</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1461,7 +1461,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43593</v>
+        <v>43606</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1481,7 +1481,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43593</v>
+        <v>43606</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43594</v>
+        <v>43607</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1521,7 +1521,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43598</v>
+        <v>43609</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>John Edmund</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1541,7 +1541,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43601</v>
+        <v>43616</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1561,7 +1561,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43604</v>
+        <v>43618</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Olive Guerrero</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1581,7 +1581,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43605</v>
+        <v>43625</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43607</v>
+        <v>43631</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1621,7 +1621,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43608</v>
+        <v>43632</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1641,7 +1641,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43609</v>
+        <v>43634</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1661,7 +1661,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43611</v>
+        <v>43635</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1681,7 +1681,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43611</v>
+        <v>43639</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Suzanne Robinson</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1701,7 +1701,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43612</v>
+        <v>43642</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1721,7 +1721,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43613</v>
+        <v>43644</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1741,7 +1741,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43616</v>
+        <v>43644</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1761,7 +1761,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43617</v>
+        <v>43652</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1781,7 +1781,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43619</v>
+        <v>43652</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Thomas Bowen</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1801,7 +1801,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43626</v>
+        <v>43654</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1821,7 +1821,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43628</v>
+        <v>43658</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1841,7 +1841,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43630</v>
+        <v>43658</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1861,7 +1861,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43632</v>
+        <v>43663</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43633</v>
+        <v>43663</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1901,7 +1901,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43634</v>
+        <v>43668</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1921,7 +1921,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43637</v>
+        <v>43673</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1941,7 +1941,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43639</v>
+        <v>43673</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1961,7 +1961,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43643</v>
+        <v>43677</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1981,7 +1981,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43644</v>
+        <v>43688</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Earlene Gardner</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2001,7 +2001,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43650</v>
+        <v>43697</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2021,7 +2021,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43650</v>
+        <v>43704</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2041,7 +2041,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43651</v>
+        <v>43704</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Sharilyn Eckhard</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2061,7 +2061,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43652</v>
+        <v>43705</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2081,7 +2081,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43654</v>
+        <v>43707</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43656</v>
+        <v>43707</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2121,7 +2121,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43657</v>
+        <v>43709</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2141,7 +2141,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43660</v>
+        <v>43710</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2161,7 +2161,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43664</v>
+        <v>43710</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2181,7 +2181,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43670</v>
+        <v>43715</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>William Hetrick</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43671</v>
+        <v>43717</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2221,7 +2221,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43672</v>
+        <v>43718</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2241,7 +2241,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43672</v>
+        <v>43726</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2261,7 +2261,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43679</v>
+        <v>43733</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2281,7 +2281,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43680</v>
+        <v>43734</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2301,7 +2301,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43683</v>
+        <v>43735</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2321,7 +2321,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43684</v>
+        <v>43738</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2341,7 +2341,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43685</v>
+        <v>43738</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43691</v>
+        <v>43746</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43692</v>
+        <v>43750</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2401,7 +2401,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43694</v>
+        <v>43751</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2421,7 +2421,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43703</v>
+        <v>43753</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2441,7 +2441,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43704</v>
+        <v>43755</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Charles Gahagan</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2461,7 +2461,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43705</v>
+        <v>43762</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2481,7 +2481,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43712</v>
+        <v>43763</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2501,7 +2501,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43713</v>
+        <v>43764</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2521,7 +2521,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43715</v>
+        <v>43767</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2541,7 +2541,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43720</v>
+        <v>43775</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2561,7 +2561,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43724</v>
+        <v>43775</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2581,7 +2581,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43730</v>
+        <v>43776</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2601,7 +2601,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43730</v>
+        <v>43780</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2621,7 +2621,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43733</v>
+        <v>43781</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2641,7 +2641,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43736</v>
+        <v>43785</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2661,7 +2661,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43737</v>
+        <v>43792</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2681,7 +2681,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43739</v>
+        <v>43797</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2701,7 +2701,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43739</v>
+        <v>43798</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2721,7 +2721,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43741</v>
+        <v>43806</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2741,7 +2741,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43743</v>
+        <v>43807</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2761,7 +2761,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43745</v>
+        <v>43808</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2781,7 +2781,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43752</v>
+        <v>43811</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2801,7 +2801,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43753</v>
+        <v>43812</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2821,7 +2821,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43755</v>
+        <v>43818</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2841,7 +2841,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43763</v>
+        <v>43822</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Suzanne Robinson</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2861,7 +2861,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43764</v>
+        <v>43822</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Joseph Padgett</t>
+          <t>Pamela Auvil</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2881,7 +2881,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43765</v>
+        <v>43822</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2901,7 +2901,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43765</v>
+        <v>43825</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2921,7 +2921,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43768</v>
+        <v>43826</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2941,7 +2941,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43769</v>
+        <v>43827</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Earlene Gardner</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2961,7 +2961,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43770</v>
+        <v>43828</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2981,7 +2981,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43770</v>
+        <v>43832</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3001,7 +3001,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43772</v>
+        <v>43833</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3021,7 +3021,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43772</v>
+        <v>43833</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3041,7 +3041,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43773</v>
+        <v>43836</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Darlene Mitchell</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3061,7 +3061,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43777</v>
+        <v>43842</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3081,7 +3081,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43777</v>
+        <v>43842</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Charles Gahagan</t>
+          <t>James Mandel</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3101,7 +3101,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43783</v>
+        <v>43844</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Charles Gahagan</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3121,7 +3121,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43784</v>
+        <v>43847</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3141,7 +3141,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43787</v>
+        <v>43848</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3161,7 +3161,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43791</v>
+        <v>43849</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Earlene Gardner</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3181,7 +3181,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43794</v>
+        <v>43850</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3201,7 +3201,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43794</v>
+        <v>43857</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3221,7 +3221,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43795</v>
+        <v>43860</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>William Hetrick</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3241,7 +3241,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43796</v>
+        <v>43861</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3261,7 +3261,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43799</v>
+        <v>43869</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3281,7 +3281,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43803</v>
+        <v>43870</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3301,7 +3301,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43804</v>
+        <v>43871</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3321,7 +3321,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43807</v>
+        <v>43872</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3341,7 +3341,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43807</v>
+        <v>43875</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Jody Crockwell</t>
+          <t>Ruth Worden</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3361,7 +3361,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43810</v>
+        <v>43879</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3381,7 +3381,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43821</v>
+        <v>43881</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3401,7 +3401,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43821</v>
+        <v>43883</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3421,7 +3421,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43822</v>
+        <v>43884</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Olive Guerrero</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3441,7 +3441,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43827</v>
+        <v>43886</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3461,7 +3461,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43828</v>
+        <v>43887</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>James Mandel</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3481,7 +3481,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43828</v>
+        <v>43888</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3501,7 +3501,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43829</v>
+        <v>43889</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3521,7 +3521,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43832</v>
+        <v>43891</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Suzanne Robinson</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3541,7 +3541,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43836</v>
+        <v>43893</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3561,7 +3561,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43839</v>
+        <v>43893</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3581,7 +3581,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43841</v>
+        <v>43902</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3601,7 +3601,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43846</v>
+        <v>43902</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3621,7 +3621,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43847</v>
+        <v>43905</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Sharilyn Eckhard</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3641,7 +3641,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43848</v>
+        <v>43908</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3661,7 +3661,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43850</v>
+        <v>43909</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3681,7 +3681,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43853</v>
+        <v>43909</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3701,7 +3701,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43853</v>
+        <v>43913</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3721,7 +3721,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43859</v>
+        <v>43913</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Suzanne Robinson</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3741,7 +3741,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43870</v>
+        <v>43915</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3761,7 +3761,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43872</v>
+        <v>43917</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3781,7 +3781,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43882</v>
+        <v>43919</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3801,7 +3801,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43882</v>
+        <v>43926</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43901</v>
+        <v>43927</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>James Mandel</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3841,7 +3841,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43902</v>
+        <v>43927</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Suzanne Robinson</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3861,7 +3861,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43908</v>
+        <v>43936</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3881,7 +3881,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43910</v>
+        <v>43938</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3901,7 +3901,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43922</v>
+        <v>43940</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3921,7 +3921,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43923</v>
+        <v>43941</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3941,7 +3941,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43923</v>
+        <v>43944</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3961,7 +3961,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43925</v>
+        <v>43945</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3981,7 +3981,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43925</v>
+        <v>43947</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>James Mandel</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4001,7 +4001,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43926</v>
+        <v>43954</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Frank Mclendon</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4021,7 +4021,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4041,7 +4041,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43932</v>
+        <v>43956</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4061,7 +4061,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43936</v>
+        <v>43961</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4081,7 +4081,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43943</v>
+        <v>43975</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Earlene Gardner</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4101,7 +4101,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43947</v>
+        <v>43975</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4121,7 +4121,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43947</v>
+        <v>43980</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>John Edmund</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4141,7 +4141,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43951</v>
+        <v>43988</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4161,7 +4161,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43952</v>
+        <v>43989</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4181,7 +4181,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4201,7 +4201,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43960</v>
+        <v>43993</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4221,7 +4221,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43961</v>
+        <v>44003</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4241,7 +4241,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43970</v>
+        <v>44024</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4261,7 +4261,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43970</v>
+        <v>44026</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4281,7 +4281,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43974</v>
+        <v>44031</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4301,7 +4301,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43974</v>
+        <v>44034</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4321,7 +4321,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43977</v>
+        <v>44036</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Thomas Bowen</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43982</v>
+        <v>44037</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4361,7 +4361,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43986</v>
+        <v>44041</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4381,7 +4381,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43988</v>
+        <v>44041</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4401,7 +4401,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43990</v>
+        <v>44041</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4421,7 +4421,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44003</v>
+        <v>44041</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4441,7 +4441,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44008</v>
+        <v>44042</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4461,7 +4461,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44009</v>
+        <v>44046</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4481,7 +4481,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44012</v>
+        <v>44048</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4501,7 +4501,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44012</v>
+        <v>44057</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Frank Mclendon</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4521,7 +4521,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44018</v>
+        <v>44059</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4541,7 +4541,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44019</v>
+        <v>44069</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4561,7 +4561,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44020</v>
+        <v>44078</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4581,7 +4581,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44023</v>
+        <v>44078</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>John Edmund</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4601,7 +4601,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44029</v>
+        <v>44079</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4621,7 +4621,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44029</v>
+        <v>44082</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Joseph Padgett</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4641,7 +4641,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44036</v>
+        <v>44083</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Olive Guerrero</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4661,7 +4661,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44044</v>
+        <v>44083</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4681,7 +4681,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44045</v>
+        <v>44096</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>James Mandel</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4701,7 +4701,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44046</v>
+        <v>44097</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Darlene Mitchell</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4721,7 +4721,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44050</v>
+        <v>44105</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Christopher Harrell</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4741,7 +4741,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44050</v>
+        <v>44107</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4761,7 +4761,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44051</v>
+        <v>44108</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4781,7 +4781,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44055</v>
+        <v>44110</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4801,7 +4801,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44055</v>
+        <v>44112</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4821,7 +4821,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44057</v>
+        <v>44129</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Jody Crockwell</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4841,7 +4841,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44061</v>
+        <v>44131</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4861,7 +4861,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44062</v>
+        <v>44134</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Joseph Padgett</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4881,7 +4881,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44066</v>
+        <v>44136</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4901,7 +4901,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44067</v>
+        <v>44136</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4921,7 +4921,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44067</v>
+        <v>44138</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Jody Crockwell</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4941,7 +4941,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44067</v>
+        <v>44147</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4961,7 +4961,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44068</v>
+        <v>44160</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>William Hetrick</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4981,7 +4981,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44069</v>
+        <v>44162</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5001,7 +5001,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44076</v>
+        <v>44162</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5021,7 +5021,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44083</v>
+        <v>44163</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5041,7 +5041,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44092</v>
+        <v>44165</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Earlene Gardner</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5061,7 +5061,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44097</v>
+        <v>44166</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5081,7 +5081,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5101,7 +5101,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44107</v>
+        <v>44168</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5121,7 +5121,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44108</v>
+        <v>44171</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5141,7 +5141,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44112</v>
+        <v>44184</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5161,7 +5161,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44116</v>
+        <v>44185</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5181,7 +5181,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44116</v>
+        <v>44187</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5201,7 +5201,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44118</v>
+        <v>44196</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Robin Clarke</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5221,7 +5221,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44122</v>
+        <v>44197</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5241,7 +5241,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44123</v>
+        <v>44200</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Olive Guerrero</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5261,7 +5261,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44123</v>
+        <v>44202</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5281,7 +5281,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44130</v>
+        <v>44207</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5301,7 +5301,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44134</v>
+        <v>44212</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5321,7 +5321,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44135</v>
+        <v>44216</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5341,7 +5341,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44136</v>
+        <v>44219</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5361,7 +5361,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44141</v>
+        <v>44223</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Earlene Gardner</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5381,7 +5381,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44141</v>
+        <v>44225</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5401,7 +5401,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44146</v>
+        <v>44228</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5421,7 +5421,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44152</v>
+        <v>44229</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5441,7 +5441,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44154</v>
+        <v>44231</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5461,7 +5461,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44155</v>
+        <v>44231</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5481,7 +5481,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44169</v>
+        <v>44233</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5501,7 +5501,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44175</v>
+        <v>44236</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Jody Crockwell</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5521,7 +5521,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44176</v>
+        <v>44237</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Earlene Gardner</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5541,7 +5541,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44181</v>
+        <v>44240</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5561,7 +5561,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44184</v>
+        <v>44244</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5581,7 +5581,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44184</v>
+        <v>44248</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5601,7 +5601,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44190</v>
+        <v>44256</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>John Edmund</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5621,7 +5621,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44190</v>
+        <v>44269</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5641,7 +5641,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44192</v>
+        <v>44284</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5661,7 +5661,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44192</v>
+        <v>44285</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5681,7 +5681,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44193</v>
+        <v>44288</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5701,7 +5701,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44202</v>
+        <v>44291</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -5721,7 +5721,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44206</v>
+        <v>44295</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5741,7 +5741,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44206</v>
+        <v>44300</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5761,7 +5761,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5781,7 +5781,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44209</v>
+        <v>44304</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5801,7 +5801,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44211</v>
+        <v>44312</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Ruth Worden</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5821,7 +5821,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44212</v>
+        <v>44313</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -5841,7 +5841,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44215</v>
+        <v>44314</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -5861,7 +5861,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44216</v>
+        <v>44316</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5881,7 +5881,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44220</v>
+        <v>44319</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Robin Clarke</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5901,7 +5901,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44221</v>
+        <v>44321</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5921,7 +5921,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44224</v>
+        <v>44325</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -5941,7 +5941,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44224</v>
+        <v>44326</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44225</v>
+        <v>44326</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -5981,7 +5981,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44226</v>
+        <v>44329</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6001,7 +6001,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44229</v>
+        <v>44337</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6021,7 +6021,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44230</v>
+        <v>44338</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6041,7 +6041,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44233</v>
+        <v>44343</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6061,7 +6061,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44233</v>
+        <v>44347</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6081,7 +6081,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44238</v>
+        <v>44347</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6101,7 +6101,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Angel Trottier</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6121,7 +6121,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Olive Guerrero</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6141,7 +6141,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44248</v>
+        <v>44354</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Joseph Padgett</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6161,7 +6161,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44265</v>
+        <v>44354</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6181,7 +6181,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44268</v>
+        <v>44358</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6201,7 +6201,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44272</v>
+        <v>44358</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6221,7 +6221,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44273</v>
+        <v>44360</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6241,7 +6241,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44275</v>
+        <v>44367</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6261,7 +6261,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44276</v>
+        <v>44373</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6281,7 +6281,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44279</v>
+        <v>44379</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Charles Gahagan</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6301,7 +6301,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44279</v>
+        <v>44379</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6321,7 +6321,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44279</v>
+        <v>44382</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6341,7 +6341,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44279</v>
+        <v>44383</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6361,7 +6361,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44281</v>
+        <v>44384</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Olive Guerrero</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6381,7 +6381,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44283</v>
+        <v>44389</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Roger Mendoza</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6401,7 +6401,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44283</v>
+        <v>44393</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -6421,7 +6421,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44291</v>
+        <v>44395</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -6441,7 +6441,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44300</v>
+        <v>44396</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Robin Clarke</t>
+          <t>Lynda Thompson</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -6461,7 +6461,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44300</v>
+        <v>44397</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -6481,7 +6481,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44300</v>
+        <v>44397</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6501,7 +6501,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44303</v>
+        <v>44401</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -6521,7 +6521,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44304</v>
+        <v>44404</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -6541,7 +6541,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -6561,7 +6561,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44310</v>
+        <v>44407</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -6581,7 +6581,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44320</v>
+        <v>44417</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Suzanne Robinson</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -6601,7 +6601,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44321</v>
+        <v>44422</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -6621,7 +6621,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44324</v>
+        <v>44424</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>David Brawer</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -6641,7 +6641,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44325</v>
+        <v>44426</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -6661,7 +6661,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44326</v>
+        <v>44429</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -6681,7 +6681,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44327</v>
+        <v>44431</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Johnny Blair</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -6701,7 +6701,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44328</v>
+        <v>44431</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -6721,7 +6721,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44330</v>
+        <v>44432</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -6741,7 +6741,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44332</v>
+        <v>44435</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Robin Clarke</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -6761,7 +6761,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44337</v>
+        <v>44435</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -6781,7 +6781,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44338</v>
+        <v>44439</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Darlene Mitchell</t>
+          <t>Ruth Worden</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -6801,7 +6801,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44338</v>
+        <v>44441</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -6821,7 +6821,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44339</v>
+        <v>44441</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -6841,7 +6841,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44341</v>
+        <v>44453</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -6861,7 +6861,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44343</v>
+        <v>44455</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Wayne Beedle</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -6881,7 +6881,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44343</v>
+        <v>44461</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Nicole Roberts</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -6901,7 +6901,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44344</v>
+        <v>44464</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Patrick Bogucki</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -6921,7 +6921,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44345</v>
+        <v>44464</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -6941,7 +6941,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44355</v>
+        <v>44465</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -6961,7 +6961,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44357</v>
+        <v>44472</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Christen Cottrell</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -6981,7 +6981,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44365</v>
+        <v>44481</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7001,7 +7001,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44372</v>
+        <v>44481</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7021,7 +7021,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44373</v>
+        <v>44483</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Robin Clarke</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7041,7 +7041,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44377</v>
+        <v>44484</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7061,7 +7061,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44378</v>
+        <v>44485</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Clifton Broadway</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7081,7 +7081,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44378</v>
+        <v>44488</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Scott Hatley</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7101,7 +7101,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44379</v>
+        <v>44493</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Roy Mccormick</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7121,7 +7121,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44379</v>
+        <v>44493</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7141,7 +7141,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44379</v>
+        <v>44499</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7161,7 +7161,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44379</v>
+        <v>44500</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>John Peterson</t>
+          <t>Debra Griffin</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7181,7 +7181,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44383</v>
+        <v>44502</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Carmen Flint</t>
+          <t>Kristopher Allen</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7201,7 +7201,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44386</v>
+        <v>44508</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7221,7 +7221,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44389</v>
+        <v>44517</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Lisa Davalos</t>
+          <t>Beverly Mccree</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7241,7 +7241,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44392</v>
+        <v>44518</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Charles Gahagan</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7261,7 +7261,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44392</v>
+        <v>44518</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7281,7 +7281,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44394</v>
+        <v>44518</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Hugh Robinson</t>
+          <t>Lucilla Legette</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7301,7 +7301,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44403</v>
+        <v>44518</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Chris Payne</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7321,7 +7321,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44404</v>
+        <v>44520</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Lee Guevara</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -7341,7 +7341,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44414</v>
+        <v>44523</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Ricky Florez</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -7361,7 +7361,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44416</v>
+        <v>44525</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Margaret Mckittrick</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -7381,7 +7381,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44417</v>
+        <v>44526</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Angel Trottier</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -7401,7 +7401,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44421</v>
+        <v>44528</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Mandy Ray</t>
+          <t>Suzanne Robinson</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -7421,7 +7421,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44421</v>
+        <v>44533</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Bonita Black</t>
+          <t>Brandi Howe</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -7441,7 +7441,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44422</v>
+        <v>44534</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Maribel Sharpe</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -7461,7 +7461,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44432</v>
+        <v>44546</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Michael Dougherty</t>
+          <t>Janice Breedlove</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -7481,7 +7481,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44434</v>
+        <v>44547</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Christen Stewart</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -7501,7 +7501,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44436</v>
+        <v>44549</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Olivia Hensel</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -7521,7 +7521,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44438</v>
+        <v>44553</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Millicent Allen</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -7541,7 +7541,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44440</v>
+        <v>44554</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Darnell Littlefield</t>
+          <t>Geoffrey Woodard</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -7561,7 +7561,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44447</v>
+        <v>44554</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Myrtle Woodruff</t>
+          <t>Patricia Barrett</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -7581,7 +7581,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44449</v>
+        <v>44556</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Lisa Tanner</t>
+          <t>Valarie Neglia</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44453</v>
+        <v>44558</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -7610,990 +7610,10 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Andrew Chapman</t>
+          <t>Daniel Brooks</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
-        <v>44458</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Myrtle Woodruff</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>Olivia Hensel</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
-        <v>44462</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Olivia Hensel</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
-        <v>44465</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>John Peterson</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
-        <v>44466</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>Lisa Davalos</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
-        <v>44470</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>Roger Mendoza</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
-        <v>44471</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>Andrew Chapman</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
-        <v>44482</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>Mandy Ray</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
-        <v>44488</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Roger Mendoza</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
-        <v>44493</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Millicent Allen</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
-        <v>44495</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>Michael Dougherty</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
-        <v>44496</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>Roger Mendoza</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
-        <v>44496</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>John Peterson</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
-        <v>44497</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>Mandy Ray</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
-        <v>44497</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>Jody Crockwell</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
-        <v>44498</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Olivia Hensel</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
-        <v>44499</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>John Peterson</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
-        <v>44503</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Christen Cottrell</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
-        <v>44504</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Andrew Chapman</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
-        <v>44505</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Mandy Ray</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
-        <v>44506</v>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>Carmen Flint</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
-        <v>44513</v>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>Lee Guevara</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
-        <v>44514</v>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>Maribel Sharpe</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
-        <v>44518</v>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>Lisa Davalos</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
-        <v>44519</v>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>John Peterson</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
-        <v>44524</v>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>Michael Dougherty</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
-        <v>44525</v>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>Scott Hatley</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
-        <v>44525</v>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>Roy Mccormick</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
-        <v>44527</v>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>Roy Mccormick</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
-        <v>44529</v>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>Lisa Tanner</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
-        <v>44530</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>Chris Payne</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>Bonita Black</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
-        <v>44533</v>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>Michael Dougherty</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
-        <v>44534</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>Roy Mccormick</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
-        <v>44535</v>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>Hugh Robinson</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
-        <v>44537</v>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>John Edmund</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
-        <v>44540</v>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>Chris Payne</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
-        <v>44542</v>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>Millicent Allen</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
-        <v>44542</v>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>Bonita Black</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
-        <v>44543</v>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>David Brawer</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
-        <v>44550</v>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>Maribel Sharpe</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
-        <v>44550</v>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>Lisa Davalos</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
-        <v>44551</v>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>Maribel Sharpe</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
-        <v>44551</v>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>Christen Cottrell</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
-        <v>44551</v>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>David Brawer</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
-        <v>44553</v>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>Bonita Black</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
-        <v>44556</v>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>Robin Clarke</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
-        <v>44557</v>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>Lisa Davalos</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>Start Badge</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
-        <v>44559</v>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>The Community</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>Joseph Padgett</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
         <is>
           <t>Start Badge</t>
         </is>
